--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Olivier\CAD\COREXY_Design\HevORT\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0F2EDC-BB04-423A-A485-57B301F20235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEED0C66-80C8-483C-8EF0-F0F9D4B13AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="187">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>6000_Bearing_5972K81</t>
+  </si>
+  <si>
+    <t>Nut, TSlot - M3X3030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty 24 based on Z Print size at 340.  Add Qty3 for every additional 5cm of Z axis over 340mm. </t>
   </si>
 </sst>
 </file>
@@ -813,42 +819,13 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -880,6 +857,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -891,9 +900,6 @@
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3413,24 +3419,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C292BF5F-38F1-4DDC-8133-F36330D88A4B}" name="Table2" displayName="Table2" ref="A1:K57" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C292BF5F-38F1-4DDC-8133-F36330D88A4B}" name="Table2" displayName="Table2" ref="A1:K57" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
   <autoFilter ref="A1:K57" xr:uid="{F0C67E1A-5119-4B25-9FBC-2A59CD2F80D6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
     <sortCondition ref="B2:B57"/>
     <sortCondition ref="F2:F57"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{371A3AB6-718E-44BA-A3CC-656ABDCDD768}" name="SubAssy" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8D81458F-CC8E-4FB2-AC08-34D35D773E2C}" name="Category" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B9E559F2-25D5-4277-BB75-76856C22B650}" name="Item" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{88B61831-5965-4EF9-94F1-EFD61EC76829}" name="Thumbnail" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{57668B42-82FE-40E2-B7EE-58DA6BBEBF56}" name="Part Name" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{0BCBCD91-246F-43A0-B8C5-04E596E69EEA}" name="Part Description" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{ACE43926-E340-4876-958D-0EF54DCBE9FA}" name="Make/Buy" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{DA7121B7-FA12-4C8D-991C-7770D7553E03}" name="QTY" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{F3D31371-2653-4B6C-8EF2-EBF3EDB7638C}" name="Comment" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{97C0D926-0B05-4BCC-BC0C-84F1540EE5F0}" name="Vendor" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{E5A8160D-7E28-49C9-8F1D-EB7E0F628E21}" name="Vendor URL" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{371A3AB6-718E-44BA-A3CC-656ABDCDD768}" name="SubAssy" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8D81458F-CC8E-4FB2-AC08-34D35D773E2C}" name="Category" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B9E559F2-25D5-4277-BB75-76856C22B650}" name="Item" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{88B61831-5965-4EF9-94F1-EFD61EC76829}" name="Thumbnail" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{57668B42-82FE-40E2-B7EE-58DA6BBEBF56}" name="Part Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{0BCBCD91-246F-43A0-B8C5-04E596E69EEA}" name="Part Description" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{ACE43926-E340-4876-958D-0EF54DCBE9FA}" name="Make/Buy" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{DA7121B7-FA12-4C8D-991C-7770D7553E03}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{F3D31371-2653-4B6C-8EF2-EBF3EDB7638C}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{97C0D926-0B05-4BCC-BC0C-84F1540EE5F0}" name="Vendor" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{E5A8160D-7E28-49C9-8F1D-EB7E0F628E21}" name="Vendor URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3760,28 +3766,28 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="84.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="84.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="17"/>
-    <col min="2" max="2" width="16.453125" style="19"/>
-    <col min="3" max="3" width="16.453125" style="10"/>
-    <col min="4" max="4" width="16.453125" style="7"/>
+    <col min="1" max="1" width="16.42578125" style="17"/>
+    <col min="2" max="2" width="16.42578125" style="19"/>
+    <col min="3" max="3" width="16.42578125" style="10"/>
+    <col min="4" max="4" width="16.42578125" style="7"/>
     <col min="5" max="5" width="40" style="14" customWidth="1"/>
     <col min="6" max="6" width="49" style="23" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="9"/>
-    <col min="9" max="9" width="56.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="7"/>
-    <col min="11" max="11" width="38.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.90625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.453125" style="7"/>
+    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="9"/>
+    <col min="9" max="9" width="56.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="7"/>
+    <col min="11" max="11" width="38.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>165</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>165</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>165</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>165</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>165</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>165</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>165</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>165</v>
       </c>
@@ -4094,7 +4100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>165</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>165</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>165</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>165</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>165</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>165</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>165</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>165</v>
       </c>
@@ -4314,7 +4320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>165</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>139</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>6</v>
@@ -4337,13 +4343,13 @@
         <v>24</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>165</v>
       </c>
@@ -4372,7 +4378,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>165</v>
       </c>
@@ -4401,7 +4407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>165</v>
       </c>
@@ -4427,7 +4433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>165</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>165</v>
       </c>
@@ -4479,7 +4485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>165</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>165</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>165</v>
       </c>
@@ -4557,7 +4563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>165</v>
       </c>
@@ -4583,7 +4589,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>165</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>165</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>165</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>165</v>
       </c>
@@ -4687,7 +4693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>165</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>165</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>165</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>165</v>
       </c>
@@ -4818,7 +4824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>165</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>165</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>165</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>165</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>165</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>165</v>
       </c>
@@ -5042,7 +5048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>165</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>165</v>
       </c>
@@ -5106,7 +5112,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>165</v>
       </c>
@@ -5138,7 +5144,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>165</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>165</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>165</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>165</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>165</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>165</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>165</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>165</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>165</v>
       </c>
@@ -5444,7 +5450,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>165</v>
       </c>
@@ -5484,6 +5490,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
   <drawing r:id="rId4"/>
+  <webPublishItems count="1">
+    <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_ZR_V2.htm"/>
+  </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
   </tableParts>

--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEED0C66-80C8-483C-8EF0-F0F9D4B13AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DEED0C66-80C8-483C-8EF0-F0F9D4B13AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81D81A48-DD82-492D-A375-4DE8CDAF7505}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="188">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -581,6 +581,28 @@
   </si>
   <si>
     <t xml:space="preserve">Qty 24 based on Z Print size at 340.  Add Qty3 for every additional 5cm of Z axis over 340mm. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mic 6® a registered trademark of Arconic
+Alca 5™ a registered trademark of PCP Aluminum
+Alpase K100-S® is a registered trademark of TST, Inc (Flatness not equal)
+Vista Metals ATP 5™ is a registered trademark of Vista Metals Corp
+Alimex ACP 5080™ is a registered trademark of Alimex, Germany.
+Formodal 030™ is a registered trademark of Bikar Metal in Germany.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thanks to Steven Kleinert for the info.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3765,29 +3787,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="84.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="84.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="17"/>
-    <col min="2" max="2" width="16.42578125" style="19"/>
-    <col min="3" max="3" width="16.42578125" style="10"/>
-    <col min="4" max="4" width="16.42578125" style="7"/>
+    <col min="1" max="1" width="16.453125" style="17"/>
+    <col min="2" max="2" width="16.453125" style="19"/>
+    <col min="3" max="3" width="16.453125" style="10"/>
+    <col min="4" max="4" width="16.453125" style="7"/>
     <col min="5" max="5" width="40" style="14" customWidth="1"/>
     <col min="6" max="6" width="49" style="23" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="9"/>
-    <col min="9" max="9" width="56.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="7"/>
-    <col min="11" max="11" width="38.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.42578125" style="7"/>
+    <col min="7" max="7" width="14.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="9"/>
+    <col min="9" max="9" width="56.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="7"/>
+    <col min="11" max="11" width="39.90625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="33.81640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -3825,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>165</v>
       </c>
@@ -3854,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -3880,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>165</v>
       </c>
@@ -3906,7 +3928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>165</v>
       </c>
@@ -3932,7 +3954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>165</v>
       </c>
@@ -3964,7 +3986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -3990,7 +4012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>165</v>
       </c>
@@ -4016,7 +4038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>165</v>
       </c>
@@ -4045,7 +4067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>165</v>
       </c>
@@ -4070,11 +4092,14 @@
       <c r="I10" s="21" t="s">
         <v>169</v>
       </c>
+      <c r="K10" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>165</v>
       </c>
@@ -4100,7 +4125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>165</v>
       </c>
@@ -4129,7 +4154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>165</v>
       </c>
@@ -4155,7 +4180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>165</v>
       </c>
@@ -4184,7 +4209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>165</v>
       </c>
@@ -4213,7 +4238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>165</v>
       </c>
@@ -4239,7 +4264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>165</v>
       </c>
@@ -4265,7 +4290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>165</v>
       </c>
@@ -4291,7 +4316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>165</v>
       </c>
@@ -4320,7 +4345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>165</v>
       </c>
@@ -4349,7 +4374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>165</v>
       </c>
@@ -4378,7 +4403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>165</v>
       </c>
@@ -4407,7 +4432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>165</v>
       </c>
@@ -4433,7 +4458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>165</v>
       </c>
@@ -4459,7 +4484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>165</v>
       </c>
@@ -4485,7 +4510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>165</v>
       </c>
@@ -4511,7 +4536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>165</v>
       </c>
@@ -4537,7 +4562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>165</v>
       </c>
@@ -4563,7 +4588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>165</v>
       </c>
@@ -4589,7 +4614,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>165</v>
       </c>
@@ -4615,7 +4640,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>165</v>
       </c>
@@ -4641,7 +4666,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>165</v>
       </c>
@@ -4667,7 +4692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>165</v>
       </c>
@@ -4693,7 +4718,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>165</v>
       </c>
@@ -4719,7 +4744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>165</v>
       </c>
@@ -4754,7 +4779,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>165</v>
       </c>
@@ -4789,7 +4814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>165</v>
       </c>
@@ -4824,7 +4849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -4856,7 +4881,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>165</v>
       </c>
@@ -4888,7 +4913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>165</v>
       </c>
@@ -4920,7 +4945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>165</v>
       </c>
@@ -4952,7 +4977,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>165</v>
       </c>
@@ -4984,7 +5009,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>165</v>
       </c>
@@ -5016,7 +5041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>165</v>
       </c>
@@ -5048,7 +5073,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>165</v>
       </c>
@@ -5080,7 +5105,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>165</v>
       </c>
@@ -5112,7 +5137,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>165</v>
       </c>
@@ -5144,7 +5169,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>165</v>
       </c>
@@ -5179,7 +5204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>165</v>
       </c>
@@ -5214,7 +5239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>165</v>
       </c>
@@ -5249,7 +5274,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>165</v>
       </c>
@@ -5284,7 +5309,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>165</v>
       </c>
@@ -5319,7 +5344,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>165</v>
       </c>
@@ -5354,7 +5379,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>165</v>
       </c>
@@ -5386,7 +5411,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>165</v>
       </c>
@@ -5415,7 +5440,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>165</v>
       </c>
@@ -5450,7 +5475,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>165</v>
       </c>
@@ -5491,7 +5516,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
   <drawing r:id="rId4"/>
   <webPublishItems count="1">
-    <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_ZR_V2.htm"/>
+    <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_ZR_V2.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId5"/>

--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DEED0C66-80C8-483C-8EF0-F0F9D4B13AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81D81A48-DD82-492D-A375-4DE8CDAF7505}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DEED0C66-80C8-483C-8EF0-F0F9D4B13AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B249F8EC-3B5B-4833-9A17-CB76DA7508F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>69852</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
@@ -1051,8 +1051,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="1698625"/>
-          <a:ext cx="978387" cy="932688"/>
+          <a:off x="3365502" y="12404725"/>
+          <a:ext cx="975212" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3789,27 +3789,27 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="84.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="84.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="17"/>
-    <col min="2" max="2" width="16.453125" style="19"/>
-    <col min="3" max="3" width="16.453125" style="10"/>
-    <col min="4" max="4" width="16.453125" style="7"/>
+    <col min="1" max="1" width="16.42578125" style="17"/>
+    <col min="2" max="2" width="16.42578125" style="19"/>
+    <col min="3" max="3" width="16.42578125" style="10"/>
+    <col min="4" max="4" width="16.42578125" style="7"/>
     <col min="5" max="5" width="40" style="14" customWidth="1"/>
     <col min="6" max="6" width="49" style="23" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="9"/>
-    <col min="9" max="9" width="56.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="7"/>
-    <col min="11" max="11" width="39.90625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="33.81640625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.453125" style="7"/>
+    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="9"/>
+    <col min="9" max="9" width="56.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="7"/>
+    <col min="11" max="11" width="39.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>165</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>165</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>165</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>165</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>165</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>165</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>165</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>165</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>165</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>165</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>165</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>165</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>165</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>165</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>165</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>165</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>165</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>165</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>165</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>165</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>165</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>165</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>165</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>165</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>165</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>165</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>165</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>165</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>165</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>165</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>165</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>165</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>165</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>165</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>165</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>165</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>165</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>165</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>165</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>165</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>165</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>165</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>165</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>165</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>165</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>165</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>165</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>165</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>165</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>165</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>165</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>165</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>165</v>
       </c>

--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DEED0C66-80C8-483C-8EF0-F0F9D4B13AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B249F8EC-3B5B-4833-9A17-CB76DA7508F4}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{DEED0C66-80C8-483C-8EF0-F0F9D4B13AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F45926CF-6AA6-4556-8D7C-61C01E7B681F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="191">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -603,6 +603,15 @@
       </rPr>
       <t>Thanks to Steven Kleinert for the info.</t>
     </r>
+  </si>
+  <si>
+    <t>Commonly available (same springs as most printers)</t>
+  </si>
+  <si>
+    <t>BK10 and BF10 machined end required.   BK10 and BF10 blocks ARE NOT required.</t>
+  </si>
+  <si>
+    <t>Ball Bearing dont need to be magnetized, Stainless Steal or Chrome Steal preffered.</t>
   </si>
 </sst>
 </file>
@@ -698,7 +707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,6 +847,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -976,15 +994,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1007,7 +1025,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="263525"/>
+          <a:off x="3495677" y="5784850"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1020,15 +1038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69852</xdr:colOff>
+      <xdr:colOff>212727</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1051,7 +1069,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3365502" y="12404725"/>
+          <a:off x="3498852" y="13500100"/>
           <a:ext cx="975212" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1064,15 +1082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1095,7 +1113,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="3133725"/>
+          <a:off x="3495677" y="49504600"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1108,15 +1126,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1139,7 +1157,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="4568825"/>
+          <a:off x="3495677" y="17357725"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1152,15 +1170,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1183,7 +1201,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="6003925"/>
+          <a:off x="3495677" y="3213100"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1196,15 +1214,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1227,7 +1245,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="7439025"/>
+          <a:off x="3495677" y="7070725"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1240,15 +1258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1271,7 +1289,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="8874125"/>
+          <a:off x="3495677" y="59791600"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1284,15 +1302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1315,7 +1333,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="10309225"/>
+          <a:off x="3495677" y="34074100"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1328,15 +1346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1359,7 +1377,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="11744325"/>
+          <a:off x="3495677" y="26358850"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1372,15 +1390,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,7 +1421,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="13179425"/>
+          <a:off x="3495677" y="31502350"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1416,15 +1434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1447,7 +1465,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="14614525"/>
+          <a:off x="3495677" y="27644725"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1460,15 +1478,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1491,7 +1509,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="16049625"/>
+          <a:off x="3495677" y="46932850"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1504,15 +1522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1535,7 +1553,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="17484725"/>
+          <a:off x="3495677" y="48218725"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1548,15 +1566,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1579,7 +1597,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="18919825"/>
+          <a:off x="3495677" y="35359975"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1592,15 +1610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1623,7 +1641,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="20354925"/>
+          <a:off x="3495677" y="50790475"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1636,15 +1654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1667,7 +1685,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="21790025"/>
+          <a:off x="3495677" y="32788225"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1680,15 +1698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1711,7 +1729,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="23225125"/>
+          <a:off x="3495677" y="39217600"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1724,15 +1742,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1755,7 +1773,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="24660225"/>
+          <a:off x="3495677" y="21215350"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1768,15 +1786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1799,7 +1817,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="26095325"/>
+          <a:off x="3495677" y="45646975"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1812,15 +1830,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1843,7 +1861,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="27530425"/>
+          <a:off x="3495677" y="52076350"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1856,15 +1874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1887,7 +1905,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="28965525"/>
+          <a:off x="3495677" y="40503475"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1900,15 +1918,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1931,7 +1949,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="30400625"/>
+          <a:off x="3495677" y="53362225"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1944,15 +1962,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1975,7 +1993,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="31835725"/>
+          <a:off x="3495677" y="61077475"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1988,15 +2006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2019,7 +2037,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="33270825"/>
+          <a:off x="3495677" y="57219850"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2032,15 +2050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2063,7 +2081,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="34705925"/>
+          <a:off x="3495677" y="18643600"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2076,15 +2094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2107,7 +2125,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="36141025"/>
+          <a:off x="3495677" y="58505725"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2120,15 +2138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2151,7 +2169,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="37576125"/>
+          <a:off x="3495677" y="19929475"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2164,15 +2182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2195,7 +2213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="39011225"/>
+          <a:off x="3495677" y="37931725"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2208,15 +2226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2239,7 +2257,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="40446325"/>
+          <a:off x="3495677" y="14785975"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2252,15 +2270,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2283,7 +2301,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="41881425"/>
+          <a:off x="3495677" y="16071850"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2296,15 +2314,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2327,7 +2345,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="43316525"/>
+          <a:off x="3495677" y="55933975"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2340,15 +2358,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2371,7 +2389,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="46186725"/>
+          <a:off x="3495677" y="10928350"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2384,15 +2402,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2415,7 +2433,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="47621825"/>
+          <a:off x="3495677" y="641350"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2428,15 +2446,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2459,7 +2477,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="49056925"/>
+          <a:off x="3495677" y="70078600"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2472,15 +2490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2503,7 +2521,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="50492025"/>
+          <a:off x="3495677" y="1927225"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2516,15 +2534,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2547,7 +2565,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="51927125"/>
+          <a:off x="3495677" y="41789350"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2560,15 +2578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2591,7 +2609,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="53362225"/>
+          <a:off x="3495677" y="28930600"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2604,15 +2622,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2635,7 +2653,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="54797325"/>
+          <a:off x="3495677" y="67506850"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2648,15 +2666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2679,7 +2697,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="56232425"/>
+          <a:off x="3495677" y="54648100"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2692,15 +2710,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2723,7 +2741,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="57667525"/>
+          <a:off x="3495677" y="36645850"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2736,15 +2754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2767,7 +2785,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="59102625"/>
+          <a:off x="3495677" y="8356600"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2780,15 +2798,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2811,7 +2829,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="60537725"/>
+          <a:off x="3495677" y="12214225"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2824,15 +2842,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2855,7 +2873,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="61972825"/>
+          <a:off x="3495677" y="22501225"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2868,15 +2886,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2899,7 +2917,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="63407925"/>
+          <a:off x="3495677" y="66220975"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2912,15 +2930,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2943,7 +2961,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="64843025"/>
+          <a:off x="3495677" y="68792725"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2956,15 +2974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2987,7 +3005,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="69148325"/>
+          <a:off x="3495677" y="71364475"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3000,15 +3018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3031,7 +3049,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="70583425"/>
+          <a:off x="3495677" y="44361100"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3044,15 +3062,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3075,7 +3093,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="72018525"/>
+          <a:off x="3495677" y="43075225"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3088,15 +3106,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3119,7 +3137,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="73453625"/>
+          <a:off x="3495677" y="23787100"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3132,15 +3150,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3163,7 +3181,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="74888725"/>
+          <a:off x="3495677" y="9642475"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3176,15 +3194,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3207,7 +3225,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="76323825"/>
+          <a:off x="3495677" y="25072975"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3220,15 +3238,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3251,7 +3269,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="77758925"/>
+          <a:off x="3495677" y="30216475"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3264,15 +3282,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3295,7 +3313,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="79194025"/>
+          <a:off x="3495677" y="62363350"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3308,15 +3326,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3339,7 +3357,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="80629125"/>
+          <a:off x="3495677" y="4498975"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3352,15 +3370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3383,7 +3401,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="82064225"/>
+          <a:off x="3495677" y="63649225"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3396,15 +3414,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>209552</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1045064</xdr:colOff>
+      <xdr:colOff>1187939</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>1012063</xdr:rowOff>
+      <xdr:rowOff>1135888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3427,7 +3445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676277" y="83499325"/>
+          <a:off x="3495677" y="64935100"/>
           <a:ext cx="978387" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3787,9 +3805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="84.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3797,7 +3815,7 @@
     <col min="1" max="1" width="16.42578125" style="17"/>
     <col min="2" max="2" width="16.42578125" style="19"/>
     <col min="3" max="3" width="16.42578125" style="10"/>
-    <col min="4" max="4" width="16.42578125" style="7"/>
+    <col min="4" max="4" width="20.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="40" style="14" customWidth="1"/>
     <col min="6" max="6" width="49" style="23" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
@@ -3847,7 +3865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>165</v>
       </c>
@@ -3876,7 +3894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -3898,11 +3916,14 @@
       <c r="H3" s="9">
         <v>4</v>
       </c>
+      <c r="I3" s="25" t="s">
+        <v>188</v>
+      </c>
       <c r="L3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>165</v>
       </c>
@@ -3924,11 +3945,14 @@
       <c r="H4" s="9">
         <v>3</v>
       </c>
+      <c r="I4" s="25" t="s">
+        <v>189</v>
+      </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>165</v>
       </c>
@@ -3954,7 +3978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>165</v>
       </c>
@@ -3986,7 +4010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -4012,7 +4036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>165</v>
       </c>
@@ -4038,7 +4062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>165</v>
       </c>
@@ -4067,7 +4091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>165</v>
       </c>
@@ -4099,7 +4123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>165</v>
       </c>
@@ -4125,7 +4149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>165</v>
       </c>
@@ -4154,7 +4178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>165</v>
       </c>
@@ -4176,11 +4200,14 @@
       <c r="H13" s="9">
         <v>9</v>
       </c>
+      <c r="I13" s="25" t="s">
+        <v>190</v>
+      </c>
       <c r="L13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>165</v>
       </c>
@@ -4209,7 +4236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>165</v>
       </c>
@@ -4238,7 +4265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>165</v>
       </c>
@@ -4264,7 +4291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>165</v>
       </c>
@@ -4290,7 +4317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>165</v>
       </c>
@@ -4316,7 +4343,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>165</v>
       </c>
@@ -4345,7 +4372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>165</v>
       </c>
@@ -4374,7 +4401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>165</v>
       </c>
@@ -4403,7 +4430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>165</v>
       </c>
@@ -4432,7 +4459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>165</v>
       </c>
@@ -4458,7 +4485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>165</v>
       </c>
@@ -4484,7 +4511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>165</v>
       </c>
@@ -4510,7 +4537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>165</v>
       </c>
@@ -4536,7 +4563,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>165</v>
       </c>
@@ -4562,7 +4589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>165</v>
       </c>
@@ -4588,7 +4615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>165</v>
       </c>
@@ -4614,7 +4641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>165</v>
       </c>
@@ -4640,7 +4667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>165</v>
       </c>
@@ -4666,7 +4693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>165</v>
       </c>
@@ -4692,7 +4719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>165</v>
       </c>
@@ -4718,7 +4745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>165</v>
       </c>
@@ -4744,7 +4771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>165</v>
       </c>
@@ -4779,7 +4806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>165</v>
       </c>
@@ -4814,7 +4841,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>165</v>
       </c>
@@ -4849,7 +4876,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -4881,7 +4908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>165</v>
       </c>
@@ -4913,7 +4940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>165</v>
       </c>
@@ -4945,7 +4972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>165</v>
       </c>
@@ -4977,7 +5004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>165</v>
       </c>
@@ -5009,7 +5036,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>165</v>
       </c>
@@ -5041,7 +5068,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>165</v>
       </c>
@@ -5073,7 +5100,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>165</v>
       </c>
@@ -5105,7 +5132,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>165</v>
       </c>
@@ -5137,7 +5164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>165</v>
       </c>
@@ -5169,7 +5196,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>165</v>
       </c>
@@ -5204,7 +5231,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>165</v>
       </c>
@@ -5239,7 +5266,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>165</v>
       </c>
@@ -5274,7 +5301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>165</v>
       </c>
@@ -5309,7 +5336,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>165</v>
       </c>
@@ -5344,7 +5371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>165</v>
       </c>
@@ -5379,7 +5406,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>165</v>
       </c>
@@ -5411,7 +5438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>165</v>
       </c>
@@ -5440,7 +5467,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>165</v>
       </c>
@@ -5475,7 +5502,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>165</v>
       </c>
@@ -5516,7 +5543,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
   <drawing r:id="rId4"/>
   <webPublishItems count="1">
-    <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_ZR_V2.htm" autoRepublish="1"/>
+    <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_ZR_V2.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId5"/>

--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{DEED0C66-80C8-483C-8EF0-F0F9D4B13AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F45926CF-6AA6-4556-8D7C-61C01E7B681F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20760212-F1E0-476D-883B-E0217B8F3859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -3810,24 +3810,24 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="84.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="84.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="17"/>
-    <col min="2" max="2" width="16.42578125" style="19"/>
-    <col min="3" max="3" width="16.42578125" style="10"/>
-    <col min="4" max="4" width="20.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="17"/>
+    <col min="2" max="2" width="16.453125" style="19"/>
+    <col min="3" max="3" width="16.453125" style="10"/>
+    <col min="4" max="4" width="20.7265625" style="7" customWidth="1"/>
     <col min="5" max="5" width="40" style="14" customWidth="1"/>
     <col min="6" max="6" width="49" style="23" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="9"/>
-    <col min="9" max="9" width="56.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="7"/>
-    <col min="11" max="11" width="39.85546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.42578125" style="7"/>
+    <col min="7" max="7" width="14.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="9"/>
+    <col min="9" max="9" width="56.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="7"/>
+    <col min="11" max="11" width="39.81640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="33.81640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>165</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>165</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>165</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>165</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>165</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>165</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>165</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>165</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>165</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>165</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>165</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>165</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>165</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>165</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>165</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>165</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>165</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>165</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>165</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>165</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>165</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>165</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>165</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>165</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>165</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>165</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>165</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>165</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>165</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>165</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>165</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>165</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>165</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>165</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>165</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>165</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>165</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>165</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>165</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>165</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>165</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>165</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>165</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>165</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>165</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>165</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>165</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>165</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>165</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>165</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>165</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>165</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>165</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>165</v>
       </c>

--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20760212-F1E0-476D-883B-E0217B8F3859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81EE583-CE6C-4595-AF75-B02F63451ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,12 +46,6 @@
     <t>2ef9a3e4130b47ff87e0a150cef27583</t>
   </si>
   <si>
-    <t>NEMA17_E3D_High_Torque_48mm</t>
-  </si>
-  <si>
-    <t>Stepper Motor - NEMA17X48mm</t>
-  </si>
-  <si>
     <t>e404c2ce27d244b19210a1bb56156199</t>
   </si>
   <si>
@@ -530,9 +524,6 @@
   </si>
   <si>
     <t>See required Dimension as per Frame Calculator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can also use 40mm motor with 1.8 deg </t>
   </si>
   <si>
     <t>Thread has to be 1.00 to match Ball Screw machined end for BK10</t>
@@ -612,6 +603,15 @@
   </si>
   <si>
     <t>Ball Bearing dont need to be magnetized, Stainless Steal or Chrome Steal preffered.</t>
+  </si>
+  <si>
+    <t>NEMA17 1.8 degree Stepper Motors 60 mm*</t>
+  </si>
+  <si>
+    <t>Stepper Motor - NEMA17X60mm</t>
+  </si>
+  <si>
+    <t>*It is recommended to use 60mm 1.8 degree motors to avoid the bed falling down due to backdriving</t>
   </si>
 </sst>
 </file>
@@ -3806,8 +3806,8 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="84.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3829,13 +3829,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3844,16 +3844,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="2" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>6</v>
@@ -3876,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>6</v>
@@ -3888,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>7</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="3" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>6</v>
@@ -3905,10 +3905,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>6</v>
@@ -3917,15 +3917,15 @@
         <v>4</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>6</v>
@@ -3934,10 +3934,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>6</v>
@@ -3946,15 +3946,15 @@
         <v>3</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>6</v>
@@ -3963,10 +3963,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>6</v>
@@ -3975,12 +3975,12 @@
         <v>3</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>6</v>
@@ -3990,10 +3990,10 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>6</v>
@@ -4002,17 +4002,17 @@
         <v>6</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>6</v>
@@ -4021,10 +4021,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>6</v>
@@ -4033,12 +4033,12 @@
         <v>3</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>6</v>
@@ -4047,10 +4047,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>6</v>
@@ -4059,12 +4059,12 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>6</v>
@@ -4073,10 +4073,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>6</v>
@@ -4085,15 +4085,15 @@
         <v>3</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>6</v>
@@ -4102,10 +4102,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>6</v>
@@ -4114,18 +4114,18 @@
         <v>1</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>6</v>
@@ -4134,10 +4134,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>6</v>
@@ -4146,12 +4146,12 @@
         <v>3</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>6</v>
@@ -4159,11 +4159,11 @@
       <c r="C12" s="10">
         <v>11</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>8</v>
+      <c r="E12" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>6</v>
@@ -4172,27 +4172,27 @@
         <v>3</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="10">
         <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>6</v>
@@ -4201,27 +4201,27 @@
         <v>9</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="10">
         <v>13</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>6</v>
@@ -4230,27 +4230,27 @@
         <v>30</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="10">
         <v>14</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>6</v>
@@ -4259,27 +4259,27 @@
         <v>3</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="10">
         <v>15</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>6</v>
@@ -4288,24 +4288,24 @@
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="10">
         <v>16</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>6</v>
@@ -4314,24 +4314,24 @@
         <v>9</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="10">
         <v>17</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>6</v>
@@ -4340,24 +4340,24 @@
         <v>6</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="10">
         <v>18</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>6</v>
@@ -4366,27 +4366,27 @@
         <v>26</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" s="10">
         <v>19</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>6</v>
@@ -4395,27 +4395,27 @@
         <v>24</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="10">
         <v>20</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>6</v>
@@ -4424,27 +4424,27 @@
         <v>6</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="10">
         <v>21</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>6</v>
@@ -4453,27 +4453,27 @@
         <v>15</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="10">
         <v>22</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>6</v>
@@ -4482,24 +4482,24 @@
         <v>3</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="10">
         <v>23</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>6</v>
@@ -4508,24 +4508,24 @@
         <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25" s="10">
         <v>24</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>6</v>
@@ -4534,24 +4534,24 @@
         <v>6</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C26" s="10">
         <v>25</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>6</v>
@@ -4560,24 +4560,24 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="10">
         <v>26</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>6</v>
@@ -4586,24 +4586,24 @@
         <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C28" s="10">
         <v>27</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>6</v>
@@ -4612,24 +4612,24 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C29" s="10">
         <v>28</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
@@ -4638,24 +4638,24 @@
         <v>4</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C30" s="10">
         <v>29</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>6</v>
@@ -4664,24 +4664,24 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C31" s="10">
         <v>30</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>6</v>
@@ -4690,24 +4690,24 @@
         <v>9</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32" s="10">
         <v>31</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>6</v>
@@ -4716,24 +4716,24 @@
         <v>1</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="10">
         <v>32</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>6</v>
@@ -4742,24 +4742,24 @@
         <v>2</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="10">
         <v>33</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>6</v>
@@ -4768,770 +4768,770 @@
         <v>4</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="10">
         <v>34</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="10">
         <v>35</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" s="10">
         <v>36</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H37" s="9">
         <v>3</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" s="10">
         <v>37</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H38" s="9">
         <v>1</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" s="10">
         <v>38</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" s="9">
         <v>1</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" s="10">
         <v>39</v>
       </c>
       <c r="E40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="H40" s="9">
         <v>1</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C41" s="10">
         <v>40</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H41" s="9">
         <v>1</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" s="10">
         <v>41</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H42" s="9">
         <v>1</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" s="10">
         <v>42</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H43" s="9">
         <v>1</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" s="10">
         <v>43</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H44" s="9">
         <v>3</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" s="10">
         <v>44</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H45" s="9">
         <v>1</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C46" s="10">
         <v>45</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H46" s="9">
         <v>2</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" s="10">
         <v>46</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H47" s="9">
         <v>3</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" s="10">
         <v>47</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H48" s="9">
         <v>4</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" s="10">
         <v>48</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H49" s="9">
         <v>2</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" s="10">
         <v>49</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H50" s="9">
         <v>1</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H51" s="9">
         <v>1</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" s="10">
         <v>51</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H52" s="9">
         <v>1</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53" s="10">
         <v>52</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H53" s="9">
         <v>1</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" s="10">
         <v>53</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H54" s="9">
         <v>1</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C55" s="10">
         <v>54</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H55" s="9">
         <v>1</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56" s="10">
         <v>55</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H56" s="9">
         <v>1</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H57" s="9">
         <v>1</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81EE583-CE6C-4595-AF75-B02F63451ADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17379ED6-7735-4E16-B077-49E6464881E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="194">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>POS8_RodEnd</t>
-  </si>
-  <si>
-    <t>RodEnd, POS08</t>
   </si>
   <si>
     <t>4d03232de3b4883ca2922cf55543c57c</t>
@@ -612,6 +609,18 @@
   </si>
   <si>
     <t>*It is recommended to use 60mm 1.8 degree motors to avoid the bed falling down due to backdriving</t>
+  </si>
+  <si>
+    <t>RodEnd, POS08 or POS8</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_A4bJ8W</t>
+  </si>
+  <si>
+    <t>AliExpres</t>
+  </si>
+  <si>
+    <t>Note:  you may want to buy a few extra if ordering from AliExpress as level of precision of the bearing can vary.</t>
   </si>
 </sst>
 </file>
@@ -3805,9 +3814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="84.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3829,13 +3838,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3844,16 +3853,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -3867,7 +3876,7 @@
     </row>
     <row r="2" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>6</v>
@@ -3888,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>7</v>
@@ -3896,7 +3905,7 @@
     </row>
     <row r="3" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>6</v>
@@ -3917,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>8</v>
@@ -3925,7 +3934,7 @@
     </row>
     <row r="4" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>6</v>
@@ -3946,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -3954,7 +3963,7 @@
     </row>
     <row r="5" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>6</v>
@@ -3963,10 +3972,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>6</v>
@@ -3980,7 +3989,7 @@
     </row>
     <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>6</v>
@@ -3990,10 +3999,10 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>6</v>
@@ -4002,7 +4011,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -4012,7 +4021,7 @@
     </row>
     <row r="7" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>6</v>
@@ -4038,7 +4047,7 @@
     </row>
     <row r="8" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>6</v>
@@ -4064,7 +4073,7 @@
     </row>
     <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>6</v>
@@ -4073,10 +4082,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>140</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>141</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>6</v>
@@ -4085,7 +4094,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>27</v>
@@ -4093,7 +4102,7 @@
     </row>
     <row r="10" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>6</v>
@@ -4114,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -4125,7 +4134,7 @@
     </row>
     <row r="11" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>6</v>
@@ -4137,7 +4146,7 @@
         <v>118</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>6</v>
@@ -4145,13 +4154,22 @@
       <c r="H11" s="9">
         <v>3</v>
       </c>
+      <c r="I11" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="L11" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>6</v>
@@ -4160,10 +4178,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>188</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>189</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>6</v>
@@ -4172,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4180,10 +4198,10 @@
     </row>
     <row r="13" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C13" s="10">
         <v>12</v>
@@ -4201,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>39</v>
@@ -4209,19 +4227,19 @@
     </row>
     <row r="14" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C14" s="10">
         <v>13</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>177</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>178</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>6</v>
@@ -4230,7 +4248,7 @@
         <v>30</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>42</v>
@@ -4238,10 +4256,10 @@
     </row>
     <row r="15" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C15" s="10">
         <v>14</v>
@@ -4259,7 +4277,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>45</v>
@@ -4267,10 +4285,10 @@
     </row>
     <row r="16" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C16" s="10">
         <v>15</v>
@@ -4293,10 +4311,10 @@
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C17" s="10">
         <v>16</v>
@@ -4319,10 +4337,10 @@
     </row>
     <row r="18" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C18" s="10">
         <v>17</v>
@@ -4345,19 +4363,19 @@
     </row>
     <row r="19" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C19" s="10">
         <v>18</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>6</v>
@@ -4366,7 +4384,7 @@
         <v>26</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>57</v>
@@ -4374,19 +4392,19 @@
     </row>
     <row r="20" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C20" s="10">
         <v>19</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>6</v>
@@ -4395,7 +4413,7 @@
         <v>24</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>60</v>
@@ -4403,19 +4421,19 @@
     </row>
     <row r="21" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C21" s="10">
         <v>20</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>6</v>
@@ -4424,7 +4442,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>62</v>
@@ -4432,10 +4450,10 @@
     </row>
     <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C22" s="10">
         <v>21</v>
@@ -4453,7 +4471,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>65</v>
@@ -4461,10 +4479,10 @@
     </row>
     <row r="23" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C23" s="10">
         <v>22</v>
@@ -4487,10 +4505,10 @@
     </row>
     <row r="24" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C24" s="10">
         <v>23</v>
@@ -4513,19 +4531,19 @@
     </row>
     <row r="25" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C25" s="10">
         <v>24</v>
       </c>
       <c r="E25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>6</v>
@@ -4539,10 +4557,10 @@
     </row>
     <row r="26" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C26" s="10">
         <v>25</v>
@@ -4565,10 +4583,10 @@
     </row>
     <row r="27" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C27" s="10">
         <v>26</v>
@@ -4591,10 +4609,10 @@
     </row>
     <row r="28" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C28" s="10">
         <v>27</v>
@@ -4617,10 +4635,10 @@
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C29" s="10">
         <v>28</v>
@@ -4643,10 +4661,10 @@
     </row>
     <row r="30" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C30" s="10">
         <v>29</v>
@@ -4669,10 +4687,10 @@
     </row>
     <row r="31" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C31" s="10">
         <v>30</v>
@@ -4695,10 +4713,10 @@
     </row>
     <row r="32" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C32" s="10">
         <v>31</v>
@@ -4721,10 +4739,10 @@
     </row>
     <row r="33" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C33" s="10">
         <v>32</v>
@@ -4747,10 +4765,10 @@
     </row>
     <row r="34" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="C34" s="10">
         <v>33</v>
@@ -4773,7 +4791,7 @@
     </row>
     <row r="35" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>11</v>
@@ -4782,10 +4800,10 @@
         <v>34</v>
       </c>
       <c r="E35" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>135</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>11</v>
@@ -4794,13 +4812,13 @@
         <v>1</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>94</v>
@@ -4808,7 +4826,7 @@
     </row>
     <row r="36" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>11</v>
@@ -4817,10 +4835,10 @@
         <v>35</v>
       </c>
       <c r="E36" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>131</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>132</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>11</v>
@@ -4829,13 +4847,13 @@
         <v>1</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>97</v>
@@ -4843,7 +4861,7 @@
     </row>
     <row r="37" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>11</v>
@@ -4864,13 +4882,13 @@
         <v>3</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>100</v>
@@ -4878,7 +4896,7 @@
     </row>
     <row r="38" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>11</v>
@@ -4899,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>103</v>
@@ -4910,7 +4928,7 @@
     </row>
     <row r="39" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>11</v>
@@ -4931,10 +4949,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>106</v>
@@ -4942,7 +4960,7 @@
     </row>
     <row r="40" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>11</v>
@@ -4963,10 +4981,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K40" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>108</v>
@@ -4974,7 +4992,7 @@
     </row>
     <row r="41" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>11</v>
@@ -4995,10 +5013,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>111</v>
@@ -5006,7 +5024,7 @@
     </row>
     <row r="42" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>11</v>
@@ -5027,10 +5045,10 @@
         <v>1</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>114</v>
@@ -5038,7 +5056,7 @@
     </row>
     <row r="43" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>11</v>
@@ -5059,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>117</v>
@@ -5070,7 +5088,7 @@
     </row>
     <row r="44" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>11</v>
@@ -5091,18 +5109,18 @@
         <v>3</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K44" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K44" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>11</v>
@@ -5123,18 +5141,18 @@
         <v>1</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K45" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K45" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L45" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>11</v>
@@ -5155,18 +5173,18 @@
         <v>2</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K46" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K46" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>11</v>
@@ -5178,7 +5196,7 @@
         <v>76</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>11</v>
@@ -5187,18 +5205,18 @@
         <v>3</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K47" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K47" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L47" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>11</v>
@@ -5219,21 +5237,21 @@
         <v>4</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K48" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K48" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L48" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>11</v>
@@ -5254,21 +5272,21 @@
         <v>2</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K49" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L49" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>11</v>
@@ -5277,10 +5295,10 @@
         <v>49</v>
       </c>
       <c r="E50" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="23" t="s">
         <v>147</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>148</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>11</v>
@@ -5289,21 +5307,21 @@
         <v>1</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K50" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L50" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>11</v>
@@ -5312,10 +5330,10 @@
         <v>50</v>
       </c>
       <c r="E51" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>152</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>11</v>
@@ -5324,21 +5342,21 @@
         <v>1</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K51" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K51" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L51" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>11</v>
@@ -5347,10 +5365,10 @@
         <v>51</v>
       </c>
       <c r="E52" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>154</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>155</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>11</v>
@@ -5359,21 +5377,21 @@
         <v>1</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K52" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K52" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L52" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>11</v>
@@ -5382,10 +5400,10 @@
         <v>52</v>
       </c>
       <c r="E53" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>11</v>
@@ -5394,21 +5412,21 @@
         <v>1</v>
       </c>
       <c r="I53" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K53" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K53" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L53" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>11</v>
@@ -5429,18 +5447,18 @@
         <v>1</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K54" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K54" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L54" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>11</v>
@@ -5449,10 +5467,10 @@
         <v>54</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>11</v>
@@ -5461,15 +5479,15 @@
         <v>1</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K55" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>11</v>
@@ -5490,21 +5508,21 @@
         <v>1</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K56" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K56" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L56" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>11</v>
@@ -5513,10 +5531,10 @@
         <v>56</v>
       </c>
       <c r="E57" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>11</v>
@@ -5525,28 +5543,29 @@
         <v>1</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K57" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K57" s="16" t="s">
-        <v>172</v>
-      </c>
       <c r="L57" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K35" r:id="rId1" xr:uid="{2D35E292-AF84-4ACA-8AB3-1DD7C1BB327A}"/>
     <hyperlink ref="K36:K57" r:id="rId2" display="https://www.thingiverse.com/thing:4387638" xr:uid="{EEF9807B-3530-49F1-8A95-10297D8661DC}"/>
+    <hyperlink ref="K11" r:id="rId3" xr:uid="{262EE5AF-39B8-44A1-BB87-50306A0EA98A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <webPublishItems count="1">
     <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_ZR_V2.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17379ED6-7735-4E16-B077-49E6464881E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F138481-457E-46D4-ABDE-F2327A61FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="196">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -596,9 +596,6 @@
     <t>Commonly available (same springs as most printers)</t>
   </si>
   <si>
-    <t>BK10 and BF10 machined end required.   BK10 and BF10 blocks ARE NOT required.</t>
-  </si>
-  <si>
     <t>Ball Bearing dont need to be magnetized, Stainless Steal or Chrome Steal preffered.</t>
   </si>
   <si>
@@ -621,13 +618,47 @@
   </si>
   <si>
     <t>Note:  you may want to buy a few extra if ordering from AliExpress as level of precision of the bearing can vary.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BK10 and BF10 machined end required.   BK10 and BF10 blocks ARE NOT required.  Length 450mm fits Z axis of 340mm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Nut cylindrical portion should have a diamerter of 22mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Length determined by Frame Calculator:
+https://github.com/MirageC79/HevORT/tree/master/docs/assets/references/frame</t>
+    </r>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_DdCsRNX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +746,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -784,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,6 +904,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3815,8 +3869,8 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11:K11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="84.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3932,7 +3986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>162</v>
       </c>
@@ -3954,8 +4008,14 @@
       <c r="H4" s="9">
         <v>3</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>185</v>
+      <c r="I4" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -4146,7 +4206,7 @@
         <v>118</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>6</v>
@@ -4155,13 +4215,13 @@
         <v>3</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>33</v>
@@ -4178,10 +4238,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>6</v>
@@ -4190,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4219,7 +4279,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>39</v>
@@ -5557,15 +5617,16 @@
     <hyperlink ref="K35" r:id="rId1" xr:uid="{2D35E292-AF84-4ACA-8AB3-1DD7C1BB327A}"/>
     <hyperlink ref="K36:K57" r:id="rId2" display="https://www.thingiverse.com/thing:4387638" xr:uid="{EEF9807B-3530-49F1-8A95-10297D8661DC}"/>
     <hyperlink ref="K11" r:id="rId3" xr:uid="{262EE5AF-39B8-44A1-BB87-50306A0EA98A}"/>
+    <hyperlink ref="K4" r:id="rId4" xr:uid="{1B5F180B-6878-4E7C-89AD-3F8A2E557842}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <webPublishItems count="1">
     <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_ZR_V2.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_ZR_V2.xlsx
+++ b/bom/BOM_ZR_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F138481-457E-46D4-ABDE-F2327A61FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD80FAF0-D2A8-4871-9DED-72A11E49A8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>d901dba6ddbd4127bf0567ea10fe573a</t>
-  </si>
-  <si>
-    <t>SFU1204-450 With Nut</t>
-  </si>
-  <si>
-    <t>BAll Screw with Nut</t>
   </si>
   <si>
     <t>de33ba5276229899d11c6192b196a71f</t>
@@ -620,6 +614,16 @@
     <t>Note:  you may want to buy a few extra if ordering from AliExpress as level of precision of the bearing can vary.</t>
   </si>
   <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_DdCsRNX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball Screw with 22mm diameter Nut
+ </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">BK10 and BF10 machined end required.   BK10 and BF10 blocks ARE NOT required.  Length 450mm fits Z axis of 340mm.
 </t>
@@ -632,7 +636,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*Nut cylindrical portion should have a diamerter of 22mm</t>
+      <t>*Nut cylindrical portion should have a diamerter of 22mm
+Some supplier will Identify as -3.</t>
     </r>
     <r>
       <rPr>
@@ -648,10 +653,7 @@
     </r>
   </si>
   <si>
-    <t>AliExpress</t>
-  </si>
-  <si>
-    <t>https://s.click.aliexpress.com/e/_DdCsRNX</t>
+    <t>SFU1204-450(-3)* With Nut</t>
   </si>
 </sst>
 </file>
@@ -829,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,19 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -882,25 +872,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3546,9 +3524,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3586,9 +3564,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3621,26 +3599,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3673,26 +3634,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3868,22 +3812,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="84.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="17"/>
-    <col min="2" max="2" width="16.453125" style="19"/>
+    <col min="1" max="1" width="16.453125" style="13"/>
+    <col min="2" max="2" width="16.453125" style="14"/>
     <col min="3" max="3" width="16.453125" style="10"/>
     <col min="4" max="4" width="20.7265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="40" style="14" customWidth="1"/>
-    <col min="6" max="6" width="49" style="23" customWidth="1"/>
+    <col min="5" max="5" width="40" style="11" customWidth="1"/>
+    <col min="6" max="6" width="49" style="16" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.453125" style="9"/>
-    <col min="9" max="9" width="56.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.1796875" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.453125" style="7"/>
     <col min="11" max="11" width="39.81640625" style="7" customWidth="1"/>
     <col min="12" max="12" width="33.81640625" style="7" hidden="1" customWidth="1"/>
@@ -3892,13 +3836,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3907,16 +3851,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -3929,20 +3873,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>93</v>
+      <c r="E2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>6</v>
@@ -3950,28 +3894,28 @@
       <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>166</v>
+      <c r="I2" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>99</v>
+      <c r="E3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>6</v>
@@ -3979,28 +3923,28 @@
       <c r="H3" s="9">
         <v>4</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>184</v>
+      <c r="I3" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="124" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>17</v>
+      <c r="E4" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>6</v>
@@ -4008,34 +3952,34 @@
       <c r="H4" s="9">
         <v>3</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="27" t="s">
+      <c r="I4" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>195</v>
+      <c r="J4" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>165</v>
+      <c r="E5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>6</v>
@@ -4048,52 +3992,49 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="E6" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>6</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="I6" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>20</v>
+      <c r="E7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>6</v>
@@ -4102,24 +4043,24 @@
         <v>3</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>116</v>
+      <c r="E8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>6</v>
@@ -4128,24 +4069,24 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>140</v>
+      <c r="E9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>6</v>
@@ -4153,28 +4094,28 @@
       <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>166</v>
+      <c r="I9" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>90</v>
+      <c r="E10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>6</v>
@@ -4182,31 +4123,31 @@
       <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>183</v>
+      <c r="I10" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>189</v>
+      <c r="E11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>6</v>
@@ -4214,34 +4155,34 @@
       <c r="H11" s="9">
         <v>3</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>192</v>
+      <c r="I11" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="10">
         <v>11</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>187</v>
+      <c r="E12" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>6</v>
@@ -4249,28 +4190,28 @@
       <c r="H12" s="9">
         <v>3</v>
       </c>
-      <c r="I12" s="21" t="s">
-        <v>188</v>
+      <c r="I12" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>163</v>
+      <c r="A13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C13" s="10">
         <v>12</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>85</v>
+      <c r="E13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>6</v>
@@ -4278,28 +4219,28 @@
       <c r="H13" s="9">
         <v>9</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>185</v>
+      <c r="I13" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>163</v>
+      <c r="A14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C14" s="10">
         <v>13</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>177</v>
+      <c r="E14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>6</v>
@@ -4307,27 +4248,27 @@
       <c r="H14" s="9">
         <v>30</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>178</v>
+      <c r="I14" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>163</v>
+      <c r="A15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C15" s="10">
         <v>14</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -4336,28 +4277,28 @@
       <c r="H15" s="9">
         <v>3</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>167</v>
+      <c r="I15" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>163</v>
+      <c r="A16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C16" s="10">
         <v>15</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>74</v>
+      <c r="E16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>6</v>
@@ -4366,24 +4307,24 @@
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>163</v>
+      <c r="A17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C17" s="10">
         <v>16</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>79</v>
+      <c r="E17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>6</v>
@@ -4392,24 +4333,24 @@
         <v>9</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>163</v>
+      <c r="A18" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C18" s="10">
         <v>17</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>56</v>
+      <c r="E18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>6</v>
@@ -4418,24 +4359,24 @@
         <v>6</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>163</v>
+      <c r="A19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C19" s="10">
         <v>18</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>121</v>
+      <c r="E19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>6</v>
@@ -4443,28 +4384,28 @@
       <c r="H19" s="9">
         <v>26</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>168</v>
+      <c r="I19" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>163</v>
+      <c r="A20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C20" s="10">
         <v>19</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>181</v>
+      <c r="E20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>6</v>
@@ -4472,28 +4413,28 @@
       <c r="H20" s="9">
         <v>24</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>182</v>
+      <c r="I20" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>163</v>
+      <c r="A21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>137</v>
+      <c r="E21" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>6</v>
@@ -4501,28 +4442,28 @@
       <c r="H21" s="9">
         <v>6</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>168</v>
+      <c r="I21" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>163</v>
+      <c r="A22" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C22" s="10">
         <v>21</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>29</v>
+      <c r="E22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>6</v>
@@ -4530,28 +4471,28 @@
       <c r="H22" s="9">
         <v>15</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>168</v>
+      <c r="I22" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>163</v>
+      <c r="A23" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C23" s="10">
         <v>22</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>35</v>
+      <c r="E23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>6</v>
@@ -4560,24 +4501,24 @@
         <v>3</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>163</v>
+      <c r="A24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C24" s="10">
         <v>23</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>105</v>
+      <c r="E24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>6</v>
@@ -4586,24 +4527,24 @@
         <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>163</v>
+      <c r="A25" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C25" s="10">
         <v>24</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>144</v>
+      <c r="E25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>6</v>
@@ -4612,24 +4553,24 @@
         <v>6</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>163</v>
+      <c r="A26" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C26" s="10">
         <v>25</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>32</v>
+      <c r="E26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>6</v>
@@ -4638,24 +4579,24 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>163</v>
+      <c r="A27" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C27" s="10">
         <v>26</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>50</v>
+      <c r="E27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>6</v>
@@ -4664,24 +4605,24 @@
         <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>163</v>
+      <c r="A28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C28" s="10">
         <v>27</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>26</v>
+      <c r="E28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>6</v>
@@ -4690,24 +4631,24 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>163</v>
+      <c r="A29" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C29" s="10">
         <v>28</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>44</v>
+      <c r="E29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
@@ -4716,24 +4657,24 @@
         <v>4</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>163</v>
+      <c r="A30" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C30" s="10">
         <v>29</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>113</v>
+      <c r="E30" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>6</v>
@@ -4742,24 +4683,24 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>163</v>
+      <c r="A31" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C31" s="10">
         <v>30</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>82</v>
+      <c r="E31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>6</v>
@@ -4768,24 +4709,24 @@
         <v>9</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>163</v>
+      <c r="A32" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C32" s="10">
         <v>31</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>53</v>
+      <c r="E32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>6</v>
@@ -4794,24 +4735,24 @@
         <v>1</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>163</v>
+      <c r="A33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C33" s="10">
         <v>32</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>64</v>
+      <c r="E33" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>6</v>
@@ -4820,24 +4761,24 @@
         <v>2</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>163</v>
+      <c r="A34" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C34" s="10">
         <v>33</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>102</v>
+      <c r="E34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>6</v>
@@ -4846,24 +4787,24 @@
         <v>4</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="10">
         <v>34</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>134</v>
+      <c r="E35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>11</v>
@@ -4871,34 +4812,34 @@
       <c r="H35" s="9">
         <v>1</v>
       </c>
-      <c r="I35" s="21" t="s">
-        <v>175</v>
+      <c r="I35" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="10">
         <v>35</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>131</v>
+      <c r="E36" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>11</v>
@@ -4906,34 +4847,34 @@
       <c r="H36" s="9">
         <v>1</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>175</v>
+      <c r="I36" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="10">
         <v>36</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>59</v>
+      <c r="E37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>11</v>
@@ -4941,34 +4882,34 @@
       <c r="H37" s="9">
         <v>3</v>
       </c>
-      <c r="I37" s="21" t="s">
-        <v>179</v>
+      <c r="I37" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="10">
         <v>37</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>38</v>
+      <c r="E38" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>11</v>
@@ -4977,30 +4918,30 @@
         <v>1</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="10">
         <v>38</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>41</v>
+      <c r="E39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>11</v>
@@ -5009,29 +4950,29 @@
         <v>1</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="10">
         <v>39</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="10" t="s">
@@ -5041,30 +4982,30 @@
         <v>1</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="19" t="s">
+      <c r="A41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="10">
         <v>40</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>47</v>
+      <c r="E41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>11</v>
@@ -5073,30 +5014,30 @@
         <v>1</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="10">
         <v>41</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>47</v>
+      <c r="E42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>11</v>
@@ -5105,30 +5046,30 @@
         <v>1</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="19" t="s">
+      <c r="A43" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="10">
         <v>42</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>47</v>
+      <c r="E43" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>11</v>
@@ -5137,30 +5078,30 @@
         <v>1</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="10">
         <v>43</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>110</v>
+      <c r="E44" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>11</v>
@@ -5169,30 +5110,30 @@
         <v>3</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="19" t="s">
+      <c r="A45" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="10">
         <v>44</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>88</v>
+      <c r="E45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>11</v>
@@ -5201,30 +5142,30 @@
         <v>1</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K45" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="10">
         <v>45</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>71</v>
+      <c r="E46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>11</v>
@@ -5233,30 +5174,30 @@
         <v>2</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="10">
         <v>46</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>169</v>
+      <c r="E47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>11</v>
@@ -5265,30 +5206,30 @@
         <v>3</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="10">
         <v>47</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>23</v>
+      <c r="E48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>11</v>
@@ -5296,34 +5237,34 @@
       <c r="H48" s="9">
         <v>4</v>
       </c>
-      <c r="I48" s="21" t="s">
-        <v>179</v>
+      <c r="I48" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="19" t="s">
+      <c r="A49" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="10">
         <v>48</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>68</v>
+      <c r="E49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>11</v>
@@ -5331,34 +5272,34 @@
       <c r="H49" s="9">
         <v>2</v>
       </c>
-      <c r="I49" s="21" t="s">
-        <v>179</v>
+      <c r="I49" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="10">
         <v>49</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>147</v>
+      <c r="E50" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>11</v>
@@ -5366,34 +5307,34 @@
       <c r="H50" s="9">
         <v>1</v>
       </c>
-      <c r="I50" s="21" t="s">
-        <v>174</v>
+      <c r="I50" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>151</v>
+      <c r="E51" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>11</v>
@@ -5401,34 +5342,34 @@
       <c r="H51" s="9">
         <v>1</v>
       </c>
-      <c r="I51" s="21" t="s">
-        <v>174</v>
+      <c r="I51" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K51" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="10">
         <v>51</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>154</v>
+      <c r="E52" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>11</v>
@@ -5436,34 +5377,34 @@
       <c r="H52" s="9">
         <v>1</v>
       </c>
-      <c r="I52" s="21" t="s">
-        <v>174</v>
+      <c r="I52" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="19" t="s">
+      <c r="A53" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="10">
         <v>52</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>123</v>
+      <c r="E53" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>11</v>
@@ -5471,34 +5412,34 @@
       <c r="H53" s="9">
         <v>1</v>
       </c>
-      <c r="I53" s="21" t="s">
-        <v>175</v>
+      <c r="I53" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" s="19" t="s">
+      <c r="A54" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="10">
         <v>53</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>107</v>
+      <c r="E54" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>11</v>
@@ -5507,30 +5448,30 @@
         <v>1</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="19" t="s">
+      <c r="A55" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="10">
         <v>54</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>164</v>
+      <c r="E55" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>11</v>
@@ -5539,27 +5480,27 @@
         <v>1</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="19" t="s">
+      <c r="A56" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="10">
         <v>55</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>96</v>
+      <c r="E56" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>11</v>
@@ -5567,34 +5508,34 @@
       <c r="H56" s="9">
         <v>1</v>
       </c>
-      <c r="I56" s="21" t="s">
-        <v>175</v>
+      <c r="I56" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="19" t="s">
+      <c r="A57" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>128</v>
+      <c r="E57" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>11</v>
@@ -5603,13 +5544,13 @@
         <v>1</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5623,7 +5564,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
   <drawing r:id="rId6"/>
   <webPublishItems count="1">
-    <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_ZR_V2.htm" autoRepublish="1"/>
+    <webPublishItem id="6083" divId="BOM_ZR_V2_6083" sourceType="sheet" destinationFile="C:\Users\olivi\HevORT\bom\BOM_ZR_V2.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId7"/>
